--- a/Statystyki_2018/Template/obbc_.xlsx
+++ b/Statystyki_2018/Template/obbc_.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t xml:space="preserve">Nazwisko
 i imię Sędziego</t>
@@ -75,6 +75,27 @@
   </si>
   <si>
     <t>Kowalewska Ala</t>
+  </si>
+  <si>
+    <t>Zaległość z poprzedniego miesiąca</t>
+  </si>
+  <si>
+    <t>Wpływ</t>
+  </si>
+  <si>
+    <t>Załatwienia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pozostało na następny miesiąc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3-6 miesięcy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6-12 miesięcy</t>
+  </si>
+  <si>
+    <t>ponad 12 miesięcy</t>
   </si>
   <si>
     <t xml:space="preserve">Informacja w zakresie długości postępowania międzyinstancyjnego            </t>
@@ -617,14 +638,14 @@
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" xfId="0">
+      <alignment shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="9" applyFill="1" borderId="12" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="9" applyFill="1" borderId="12" applyBorder="1" xfId="0">
       <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" xfId="0">
-      <alignment shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -1142,64 +1163,560 @@
       </c>
     </row>
     <row r="6" ht="15.75">
-      <c r="A6" s="17"/>
+      <c r="A6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="42">
+        <v>11</v>
+      </c>
+      <c r="G6" s="42">
+        <v>12</v>
+      </c>
+      <c r="H6" s="42">
+        <v>0</v>
+      </c>
+      <c r="I6" s="42">
+        <v>0</v>
+      </c>
+      <c r="J6" s="42">
+        <v>0</v>
+      </c>
+      <c r="K6" s="42">
+        <v>0</v>
+      </c>
+      <c r="L6" s="42">
+        <v>0</v>
+      </c>
+      <c r="M6" s="42">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" ht="15.75">
-      <c r="A7" s="17"/>
+      <c r="A7" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="42">
+        <v>0</v>
+      </c>
+      <c r="G7" s="42">
+        <v>0</v>
+      </c>
+      <c r="H7" s="42">
+        <v>0</v>
+      </c>
+      <c r="I7" s="42">
+        <v>0</v>
+      </c>
+      <c r="J7" s="42">
+        <v>0</v>
+      </c>
+      <c r="K7" s="42">
+        <v>0</v>
+      </c>
+      <c r="L7" s="42">
+        <v>0</v>
+      </c>
+      <c r="M7" s="42">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" ht="15.75">
-      <c r="A8" s="17"/>
+      <c r="A8" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="42">
+        <v>0</v>
+      </c>
+      <c r="G8" s="42">
+        <v>0</v>
+      </c>
+      <c r="H8" s="42">
+        <v>0</v>
+      </c>
+      <c r="I8" s="42">
+        <v>0</v>
+      </c>
+      <c r="J8" s="42">
+        <v>0</v>
+      </c>
+      <c r="K8" s="42">
+        <v>0</v>
+      </c>
+      <c r="L8" s="42">
+        <v>0</v>
+      </c>
+      <c r="M8" s="42">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" ht="15.75">
-      <c r="A9" s="17"/>
+      <c r="A9" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="42">
+        <v>0</v>
+      </c>
+      <c r="G9" s="42">
+        <v>0</v>
+      </c>
+      <c r="H9" s="42">
+        <v>0</v>
+      </c>
+      <c r="I9" s="42">
+        <v>0</v>
+      </c>
+      <c r="J9" s="42">
+        <v>0</v>
+      </c>
+      <c r="K9" s="42">
+        <v>0</v>
+      </c>
+      <c r="L9" s="42">
+        <v>0</v>
+      </c>
+      <c r="M9" s="42">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" ht="15.75">
-      <c r="A10" s="17"/>
+      <c r="A10" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="42">
+        <v>0</v>
+      </c>
+      <c r="G10" s="42">
+        <v>0</v>
+      </c>
+      <c r="H10" s="42">
+        <v>0</v>
+      </c>
+      <c r="I10" s="42">
+        <v>0</v>
+      </c>
+      <c r="J10" s="42">
+        <v>0</v>
+      </c>
+      <c r="K10" s="42">
+        <v>0</v>
+      </c>
+      <c r="L10" s="42">
+        <v>0</v>
+      </c>
+      <c r="M10" s="42">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" ht="15.75">
-      <c r="A11" s="17"/>
+      <c r="A11" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="42">
+        <v>0</v>
+      </c>
+      <c r="G11" s="42">
+        <v>0</v>
+      </c>
+      <c r="H11" s="42">
+        <v>0</v>
+      </c>
+      <c r="I11" s="42">
+        <v>0</v>
+      </c>
+      <c r="J11" s="42">
+        <v>0</v>
+      </c>
+      <c r="K11" s="42">
+        <v>0</v>
+      </c>
+      <c r="L11" s="42">
+        <v>0</v>
+      </c>
+      <c r="M11" s="42">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" ht="15.75">
-      <c r="A12" s="17"/>
+      <c r="A12" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="42">
+        <v>0</v>
+      </c>
+      <c r="G12" s="42">
+        <v>0</v>
+      </c>
+      <c r="H12" s="42">
+        <v>0</v>
+      </c>
+      <c r="I12" s="42">
+        <v>0</v>
+      </c>
+      <c r="J12" s="42">
+        <v>0</v>
+      </c>
+      <c r="K12" s="42">
+        <v>0</v>
+      </c>
+      <c r="L12" s="42">
+        <v>0</v>
+      </c>
+      <c r="M12" s="42">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" ht="15.75">
-      <c r="A13" s="17"/>
+      <c r="A13" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="42">
+        <v>0</v>
+      </c>
+      <c r="G13" s="42">
+        <v>0</v>
+      </c>
+      <c r="H13" s="42">
+        <v>0</v>
+      </c>
+      <c r="I13" s="42">
+        <v>0</v>
+      </c>
+      <c r="J13" s="42">
+        <v>0</v>
+      </c>
+      <c r="K13" s="42">
+        <v>0</v>
+      </c>
+      <c r="L13" s="42">
+        <v>0</v>
+      </c>
+      <c r="M13" s="42">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" ht="15.75">
       <c r="A14" s="17"/>
+      <c r="F14" s="42">
+        <v>0</v>
+      </c>
+      <c r="G14" s="42">
+        <v>0</v>
+      </c>
+      <c r="H14" s="42">
+        <v>0</v>
+      </c>
+      <c r="I14" s="42">
+        <v>0</v>
+      </c>
+      <c r="J14" s="42">
+        <v>0</v>
+      </c>
+      <c r="K14" s="42">
+        <v>0</v>
+      </c>
+      <c r="L14" s="42">
+        <v>0</v>
+      </c>
+      <c r="M14" s="42">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" ht="15.75">
       <c r="A15" s="17"/>
+      <c r="F15" s="42">
+        <v>0</v>
+      </c>
+      <c r="G15" s="42">
+        <v>0</v>
+      </c>
+      <c r="H15" s="42">
+        <v>0</v>
+      </c>
+      <c r="I15" s="42">
+        <v>0</v>
+      </c>
+      <c r="J15" s="42">
+        <v>0</v>
+      </c>
+      <c r="K15" s="42">
+        <v>0</v>
+      </c>
+      <c r="L15" s="42">
+        <v>0</v>
+      </c>
+      <c r="M15" s="42">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" ht="15.75">
       <c r="A16" s="17"/>
+      <c r="F16" s="42">
+        <v>0</v>
+      </c>
+      <c r="G16" s="42">
+        <v>0</v>
+      </c>
+      <c r="H16" s="42">
+        <v>0</v>
+      </c>
+      <c r="I16" s="42">
+        <v>0</v>
+      </c>
+      <c r="J16" s="42">
+        <v>0</v>
+      </c>
+      <c r="K16" s="42">
+        <v>0</v>
+      </c>
+      <c r="L16" s="42">
+        <v>0</v>
+      </c>
+      <c r="M16" s="42">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" ht="15.75">
       <c r="A17" s="17"/>
+      <c r="F17" s="42">
+        <v>0</v>
+      </c>
+      <c r="G17" s="42">
+        <v>0</v>
+      </c>
+      <c r="H17" s="42">
+        <v>0</v>
+      </c>
+      <c r="I17" s="42">
+        <v>0</v>
+      </c>
+      <c r="J17" s="42">
+        <v>0</v>
+      </c>
+      <c r="K17" s="42">
+        <v>0</v>
+      </c>
+      <c r="L17" s="42">
+        <v>0</v>
+      </c>
+      <c r="M17" s="42">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" ht="15.75">
       <c r="A18" s="17"/>
+      <c r="F18" s="42">
+        <v>0</v>
+      </c>
+      <c r="G18" s="42">
+        <v>0</v>
+      </c>
+      <c r="H18" s="42">
+        <v>0</v>
+      </c>
+      <c r="I18" s="42">
+        <v>0</v>
+      </c>
+      <c r="J18" s="42">
+        <v>0</v>
+      </c>
+      <c r="K18" s="42">
+        <v>0</v>
+      </c>
+      <c r="L18" s="42">
+        <v>0</v>
+      </c>
+      <c r="M18" s="42">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" ht="15.75">
       <c r="A19" s="17"/>
+      <c r="F19" s="42">
+        <v>0</v>
+      </c>
+      <c r="G19" s="42">
+        <v>0</v>
+      </c>
+      <c r="H19" s="42">
+        <v>0</v>
+      </c>
+      <c r="I19" s="42">
+        <v>0</v>
+      </c>
+      <c r="J19" s="42">
+        <v>0</v>
+      </c>
+      <c r="K19" s="42">
+        <v>0</v>
+      </c>
+      <c r="L19" s="42">
+        <v>0</v>
+      </c>
+      <c r="M19" s="42">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" ht="15.75">
       <c r="A20" s="17"/>
+      <c r="F20" s="42">
+        <v>0</v>
+      </c>
+      <c r="G20" s="42">
+        <v>0</v>
+      </c>
+      <c r="H20" s="42">
+        <v>0</v>
+      </c>
+      <c r="I20" s="42">
+        <v>0</v>
+      </c>
+      <c r="J20" s="42">
+        <v>0</v>
+      </c>
+      <c r="K20" s="42">
+        <v>0</v>
+      </c>
+      <c r="L20" s="42">
+        <v>0</v>
+      </c>
+      <c r="M20" s="42">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" ht="15.75">
       <c r="A21" s="17"/>
+      <c r="F21" s="42">
+        <v>0</v>
+      </c>
+      <c r="G21" s="42">
+        <v>0</v>
+      </c>
+      <c r="H21" s="42">
+        <v>0</v>
+      </c>
+      <c r="I21" s="42">
+        <v>0</v>
+      </c>
+      <c r="J21" s="42">
+        <v>0</v>
+      </c>
+      <c r="K21" s="42">
+        <v>0</v>
+      </c>
+      <c r="L21" s="42">
+        <v>0</v>
+      </c>
+      <c r="M21" s="42">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" ht="15.75">
       <c r="A22" s="17"/>
+      <c r="F22" s="42">
+        <v>0</v>
+      </c>
+      <c r="G22" s="42">
+        <v>0</v>
+      </c>
+      <c r="H22" s="42">
+        <v>0</v>
+      </c>
+      <c r="I22" s="42">
+        <v>0</v>
+      </c>
+      <c r="J22" s="42">
+        <v>0</v>
+      </c>
+      <c r="K22" s="42">
+        <v>0</v>
+      </c>
+      <c r="L22" s="42">
+        <v>0</v>
+      </c>
+      <c r="M22" s="42">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" ht="15.75">
       <c r="A23" s="17"/>
+      <c r="F23" s="42">
+        <v>0</v>
+      </c>
+      <c r="G23" s="42">
+        <v>0</v>
+      </c>
+      <c r="H23" s="42">
+        <v>0</v>
+      </c>
+      <c r="I23" s="42">
+        <v>0</v>
+      </c>
+      <c r="J23" s="42">
+        <v>0</v>
+      </c>
+      <c r="K23" s="42">
+        <v>0</v>
+      </c>
+      <c r="L23" s="42">
+        <v>0</v>
+      </c>
+      <c r="M23" s="42">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" ht="15.75">
       <c r="A24" s="17"/>
+      <c r="F24" s="42">
+        <v>0</v>
+      </c>
+      <c r="G24" s="42">
+        <v>0</v>
+      </c>
+      <c r="H24" s="42">
+        <v>0</v>
+      </c>
+      <c r="I24" s="42">
+        <v>0</v>
+      </c>
+      <c r="J24" s="42">
+        <v>0</v>
+      </c>
+      <c r="K24" s="42">
+        <v>0</v>
+      </c>
+      <c r="L24" s="42">
+        <v>0</v>
+      </c>
+      <c r="M24" s="42">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" ht="15.75">
       <c r="A25" s="17"/>
+      <c r="F25" s="42">
+        <v>0</v>
+      </c>
+      <c r="G25" s="42">
+        <v>0</v>
+      </c>
+      <c r="H25" s="42">
+        <v>0</v>
+      </c>
+      <c r="I25" s="42">
+        <v>0</v>
+      </c>
+      <c r="J25" s="42">
+        <v>0</v>
+      </c>
+      <c r="K25" s="42">
+        <v>0</v>
+      </c>
+      <c r="L25" s="42">
+        <v>0</v>
+      </c>
+      <c r="M25" s="42">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" ht="15.75">
       <c r="A26" s="17"/>
@@ -1236,6 +1753,14 @@
     <mergeCell ref="F1:L1"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A13:E13"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.39370078740157477" bottom="0.39370078740157477" header="0" footer="0"/>
   <headerFooter>
@@ -1261,7 +1786,7 @@
   <sheetData>
     <row r="1" ht="15.75">
       <c r="A1" s="27" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -1272,7 +1797,7 @@
     </row>
     <row r="2" ht="15.75">
       <c r="A2" s="27" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
@@ -1292,25 +1817,25 @@
     </row>
     <row r="4" ht="15.75">
       <c r="A4" s="28" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="42" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="43" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" ht="15.75">
@@ -1318,20 +1843,20 @@
       <c r="B5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="43" t="s">
-        <v>25</v>
+      <c r="C5" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="44" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" ht="15.75">
@@ -1420,30 +1945,30 @@
   <sheetData>
     <row r="1" ht="15.75">
       <c r="A1" s="26" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C1" s="29"/>
       <c r="D1" s="32" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E1" s="17"/>
     </row>
     <row r="2" ht="15.75">
       <c r="A2" s="26"/>
       <c r="B2" s="19" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D2" s="33"/>
     </row>
     <row r="3">
-      <c r="A3" s="44" t="s">
-        <v>31</v>
+      <c r="A3" s="42" t="s">
+        <v>38</v>
       </c>
       <c r="B3" s="41">
         <v>0</v>
@@ -1456,8 +1981,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="44" t="s">
-        <v>32</v>
+      <c r="A4" s="42" t="s">
+        <v>39</v>
       </c>
       <c r="B4" s="41">
         <v>0</v>
@@ -1470,8 +1995,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="44" t="s">
-        <v>33</v>
+      <c r="A5" s="42" t="s">
+        <v>40</v>
       </c>
       <c r="B5" s="41">
         <v>0</v>
@@ -1484,8 +2009,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="44" t="s">
-        <v>34</v>
+      <c r="A6" s="42" t="s">
+        <v>41</v>
       </c>
       <c r="B6" s="41">
         <v>1</v>
@@ -1498,8 +2023,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="44" t="s">
-        <v>35</v>
+      <c r="A7" s="42" t="s">
+        <v>42</v>
       </c>
       <c r="B7" s="41">
         <v>2</v>
@@ -1512,8 +2037,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="44" t="s">
-        <v>36</v>
+      <c r="A8" s="42" t="s">
+        <v>43</v>
       </c>
       <c r="B8" s="41">
         <v>0</v>
@@ -1563,27 +2088,27 @@
   <sheetData>
     <row r="1" ht="15.75">
       <c r="A1" s="26" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D1" s="26"/>
       <c r="E1" s="26"/>
       <c r="F1" s="31" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I1" s="39" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J1" s="25"/>
       <c r="K1" s="25"/>
@@ -1593,13 +2118,13 @@
       <c r="A2" s="26"/>
       <c r="B2" s="30"/>
       <c r="C2" s="22" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
@@ -1611,7 +2136,7 @@
     </row>
     <row r="3">
       <c r="F3" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Statystyki_2018/Template/obbc_.xlsx
+++ b/Statystyki_2018/Template/obbc_.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t xml:space="preserve">Nazwisko
 i imię Sędziego</t>
@@ -71,28 +71,46 @@
     <t>Kordyka Krystian</t>
   </si>
   <si>
-    <t>Kowalewska Ula</t>
-  </si>
-  <si>
     <t>Kowalewska Ala</t>
   </si>
   <si>
+    <t>Kowalewska-KowalewskaKowalewska Ula</t>
+  </si>
+  <si>
+    <t>Nowak Jan</t>
+  </si>
+  <si>
+    <t>6023.15</t>
+  </si>
+  <si>
+    <t>8023.15</t>
+  </si>
+  <si>
+    <t>Sokołowski Michał</t>
+  </si>
+  <si>
+    <t>trzaskowski tomasz</t>
+  </si>
+  <si>
     <t>Zaległość z poprzedniego miesiąca</t>
   </si>
   <si>
+    <t>123.15</t>
+  </si>
+  <si>
     <t>Wpływ</t>
   </si>
   <si>
     <t>Załatwienia</t>
   </si>
   <si>
-    <t xml:space="preserve"> Pozostało na następny miesiąc</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3-6 miesięcy</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6-12 miesięcy</t>
+    <t>Pozostało na następny miesiąc</t>
+  </si>
+  <si>
+    <t>3-6 miesięcy</t>
+  </si>
+  <si>
+    <t>6-12 miesięcy</t>
   </si>
   <si>
     <t>ponad 12 miesięcy</t>
@@ -113,15 +131,6 @@
     <t>11</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -138,24 +147,6 @@
   </si>
   <si>
     <t>odroczonych</t>
-  </si>
-  <si>
-    <t>Kordyka 4 Krystian</t>
-  </si>
-  <si>
-    <t>Kowalewska 6 Ula</t>
-  </si>
-  <si>
-    <t>Kowalewska 7 Ala</t>
-  </si>
-  <si>
-    <t>Nowak 1 Jan</t>
-  </si>
-  <si>
-    <t>Sokołowski 2 Michał</t>
-  </si>
-  <si>
-    <t>trzaskowski 5 tomasz</t>
   </si>
   <si>
     <t>Nazwisko i imię sędziego</t>
@@ -198,7 +189,22 @@
 1 m-ca</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>Kordyka 4 Krystian</t>
+  </si>
+  <si>
+    <t>Kowalewska 7 Ala</t>
+  </si>
+  <si>
+    <t>Kowalewska-KowalewskaKowalewska 6 Ula</t>
+  </si>
+  <si>
+    <t>Nowak 1 Jan</t>
+  </si>
+  <si>
+    <t>Sokołowski 2 Michał</t>
+  </si>
+  <si>
+    <t>trzaskowski 5 tomasz</t>
   </si>
 </sst>
 </file>
@@ -363,7 +369,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -517,6 +523,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000" tint="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000" tint="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -551,7 +581,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="2"/>
@@ -638,13 +668,15 @@
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="12" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="13" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" xfId="0">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="9" applyFill="1" borderId="12" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="9" applyFill="1" borderId="14" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="9" applyFill="1" borderId="12" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="9" applyFill="1" borderId="14" applyBorder="1" xfId="0">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1163,560 +1195,358 @@
       </c>
     </row>
     <row r="6" ht="15.75">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="42">
+      <c r="B6" s="41">
+        <v>2038</v>
+      </c>
+      <c r="C6" s="41">
+        <v>0</v>
+      </c>
+      <c r="D6" s="41">
+        <v>0</v>
+      </c>
+      <c r="E6" s="41">
+        <v>0</v>
+      </c>
+      <c r="F6" s="41">
+        <v>0</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="41">
+        <v>0</v>
+      </c>
+      <c r="I6" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="41">
+        <v>0</v>
+      </c>
+      <c r="K6" s="41">
+        <v>0</v>
+      </c>
+      <c r="L6" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75">
+      <c r="A7" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="41">
+        <v>2056</v>
+      </c>
+      <c r="C7" s="41">
+        <v>0</v>
+      </c>
+      <c r="D7" s="41">
+        <v>0</v>
+      </c>
+      <c r="E7" s="41">
+        <v>0</v>
+      </c>
+      <c r="F7" s="41">
+        <v>0</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="41">
+        <v>0</v>
+      </c>
+      <c r="I7" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="41">
+        <v>0</v>
+      </c>
+      <c r="K7" s="41">
+        <v>0</v>
+      </c>
+      <c r="L7" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75">
+      <c r="A8" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="41">
+        <v>0</v>
+      </c>
+      <c r="C8" s="41">
+        <v>0</v>
+      </c>
+      <c r="D8" s="41">
+        <v>0</v>
+      </c>
+      <c r="E8" s="41">
+        <v>0</v>
+      </c>
+      <c r="F8" s="41">
+        <v>0</v>
+      </c>
+      <c r="G8" s="41">
+        <v>0</v>
+      </c>
+      <c r="H8" s="41">
+        <v>0</v>
+      </c>
+      <c r="I8" s="41">
+        <v>0</v>
+      </c>
+      <c r="J8" s="41">
+        <v>0</v>
+      </c>
+      <c r="K8" s="41">
+        <v>0</v>
+      </c>
+      <c r="L8" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75">
+      <c r="A9" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="44">
         <v>11</v>
       </c>
-      <c r="G6" s="42">
-        <v>12</v>
-      </c>
-      <c r="H6" s="42">
-        <v>0</v>
-      </c>
-      <c r="I6" s="42">
-        <v>0</v>
-      </c>
-      <c r="J6" s="42">
-        <v>0</v>
-      </c>
-      <c r="K6" s="42">
-        <v>0</v>
-      </c>
-      <c r="L6" s="42">
-        <v>0</v>
-      </c>
-      <c r="M6" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75">
-      <c r="A7" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="42">
-        <v>0</v>
-      </c>
-      <c r="G7" s="42">
-        <v>0</v>
-      </c>
-      <c r="H7" s="42">
-        <v>0</v>
-      </c>
-      <c r="I7" s="42">
-        <v>0</v>
-      </c>
-      <c r="J7" s="42">
-        <v>0</v>
-      </c>
-      <c r="K7" s="42">
-        <v>0</v>
-      </c>
-      <c r="L7" s="42">
-        <v>0</v>
-      </c>
-      <c r="M7" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75">
-      <c r="A8" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="42">
-        <v>0</v>
-      </c>
-      <c r="G8" s="42">
-        <v>0</v>
-      </c>
-      <c r="H8" s="42">
-        <v>0</v>
-      </c>
-      <c r="I8" s="42">
-        <v>0</v>
-      </c>
-      <c r="J8" s="42">
-        <v>0</v>
-      </c>
-      <c r="K8" s="42">
-        <v>0</v>
-      </c>
-      <c r="L8" s="42">
-        <v>0</v>
-      </c>
-      <c r="M8" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75">
-      <c r="A9" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="42">
-        <v>0</v>
-      </c>
-      <c r="G9" s="42">
-        <v>0</v>
-      </c>
-      <c r="H9" s="42">
-        <v>0</v>
-      </c>
-      <c r="I9" s="42">
-        <v>0</v>
-      </c>
-      <c r="J9" s="42">
-        <v>0</v>
-      </c>
-      <c r="K9" s="42">
-        <v>0</v>
-      </c>
-      <c r="L9" s="42">
-        <v>0</v>
-      </c>
-      <c r="M9" s="42">
+      <c r="G9" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="44">
+        <v>0</v>
+      </c>
+      <c r="I9" s="44">
+        <v>41</v>
+      </c>
+      <c r="J9" s="44">
+        <v>0</v>
+      </c>
+      <c r="K9" s="44">
+        <v>61</v>
+      </c>
+      <c r="L9" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="10" ht="15.75">
-      <c r="A10" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="42">
-        <v>0</v>
-      </c>
-      <c r="G10" s="42">
-        <v>0</v>
-      </c>
-      <c r="H10" s="42">
-        <v>0</v>
-      </c>
-      <c r="I10" s="42">
-        <v>0</v>
-      </c>
-      <c r="J10" s="42">
-        <v>0</v>
-      </c>
-      <c r="K10" s="42">
-        <v>0</v>
-      </c>
-      <c r="L10" s="42">
-        <v>0</v>
-      </c>
-      <c r="M10" s="42">
+      <c r="A10" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="44">
+        <v>0</v>
+      </c>
+      <c r="G10" s="44">
+        <v>0</v>
+      </c>
+      <c r="H10" s="44">
+        <v>0</v>
+      </c>
+      <c r="I10" s="44">
+        <v>42</v>
+      </c>
+      <c r="J10" s="44">
+        <v>52</v>
+      </c>
+      <c r="K10" s="44">
+        <v>62</v>
+      </c>
+      <c r="L10" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="11" ht="15.75">
-      <c r="A11" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="42">
-        <v>0</v>
-      </c>
-      <c r="G11" s="42">
-        <v>0</v>
-      </c>
-      <c r="H11" s="42">
-        <v>0</v>
-      </c>
-      <c r="I11" s="42">
-        <v>0</v>
-      </c>
-      <c r="J11" s="42">
-        <v>0</v>
-      </c>
-      <c r="K11" s="42">
-        <v>0</v>
-      </c>
-      <c r="L11" s="42">
-        <v>0</v>
-      </c>
-      <c r="M11" s="42">
+      <c r="A11" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="44">
+        <v>0</v>
+      </c>
+      <c r="H11" s="44">
+        <v>33</v>
+      </c>
+      <c r="I11" s="44">
+        <v>0</v>
+      </c>
+      <c r="J11" s="44">
+        <v>0</v>
+      </c>
+      <c r="K11" s="44">
+        <v>0</v>
+      </c>
+      <c r="L11" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="12" ht="15.75">
-      <c r="A12" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="42">
-        <v>0</v>
-      </c>
-      <c r="G12" s="42">
-        <v>0</v>
-      </c>
-      <c r="H12" s="42">
-        <v>0</v>
-      </c>
-      <c r="I12" s="42">
-        <v>0</v>
-      </c>
-      <c r="J12" s="42">
-        <v>0</v>
-      </c>
-      <c r="K12" s="42">
-        <v>0</v>
-      </c>
-      <c r="L12" s="42">
-        <v>0</v>
-      </c>
-      <c r="M12" s="42">
+      <c r="A12" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="44">
+        <v>0</v>
+      </c>
+      <c r="G12" s="44">
+        <v>0</v>
+      </c>
+      <c r="H12" s="44">
+        <v>0</v>
+      </c>
+      <c r="I12" s="44">
+        <v>0</v>
+      </c>
+      <c r="J12" s="44">
+        <v>0</v>
+      </c>
+      <c r="K12" s="44">
+        <v>0</v>
+      </c>
+      <c r="L12" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="13" ht="15.75">
-      <c r="A13" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="42">
-        <v>0</v>
-      </c>
-      <c r="G13" s="42">
-        <v>0</v>
-      </c>
-      <c r="H13" s="42">
-        <v>0</v>
-      </c>
-      <c r="I13" s="42">
-        <v>0</v>
-      </c>
-      <c r="J13" s="42">
-        <v>0</v>
-      </c>
-      <c r="K13" s="42">
-        <v>0</v>
-      </c>
-      <c r="L13" s="42">
-        <v>0</v>
-      </c>
-      <c r="M13" s="42">
+      <c r="A13" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="44">
+        <v>0</v>
+      </c>
+      <c r="G13" s="44">
+        <v>0</v>
+      </c>
+      <c r="H13" s="44">
+        <v>0</v>
+      </c>
+      <c r="I13" s="44">
+        <v>0</v>
+      </c>
+      <c r="J13" s="44">
+        <v>55</v>
+      </c>
+      <c r="K13" s="44">
+        <v>0</v>
+      </c>
+      <c r="L13" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="14" ht="15.75">
-      <c r="A14" s="17"/>
-      <c r="F14" s="42">
-        <v>0</v>
-      </c>
-      <c r="G14" s="42">
-        <v>0</v>
-      </c>
-      <c r="H14" s="42">
-        <v>0</v>
-      </c>
-      <c r="I14" s="42">
-        <v>0</v>
-      </c>
-      <c r="J14" s="42">
-        <v>0</v>
-      </c>
-      <c r="K14" s="42">
-        <v>0</v>
-      </c>
-      <c r="L14" s="42">
-        <v>0</v>
-      </c>
-      <c r="M14" s="42">
+      <c r="A14" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="44">
+        <v>0</v>
+      </c>
+      <c r="G14" s="44">
+        <v>3</v>
+      </c>
+      <c r="H14" s="44">
+        <v>0</v>
+      </c>
+      <c r="I14" s="44">
+        <v>0</v>
+      </c>
+      <c r="J14" s="44">
+        <v>0</v>
+      </c>
+      <c r="K14" s="44">
+        <v>66</v>
+      </c>
+      <c r="L14" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="15" ht="15.75">
-      <c r="A15" s="17"/>
-      <c r="F15" s="42">
-        <v>0</v>
-      </c>
-      <c r="G15" s="42">
-        <v>0</v>
-      </c>
-      <c r="H15" s="42">
-        <v>0</v>
-      </c>
-      <c r="I15" s="42">
-        <v>0</v>
-      </c>
-      <c r="J15" s="42">
-        <v>0</v>
-      </c>
-      <c r="K15" s="42">
-        <v>0</v>
-      </c>
-      <c r="L15" s="42">
-        <v>0</v>
-      </c>
-      <c r="M15" s="42">
+      <c r="A15" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="44">
+        <v>0</v>
+      </c>
+      <c r="G15" s="44">
+        <v>0</v>
+      </c>
+      <c r="H15" s="44">
+        <v>0</v>
+      </c>
+      <c r="I15" s="44">
+        <v>0</v>
+      </c>
+      <c r="J15" s="44">
+        <v>0</v>
+      </c>
+      <c r="K15" s="44">
+        <v>67</v>
+      </c>
+      <c r="L15" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="16" ht="15.75">
       <c r="A16" s="17"/>
-      <c r="F16" s="42">
-        <v>0</v>
-      </c>
-      <c r="G16" s="42">
-        <v>0</v>
-      </c>
-      <c r="H16" s="42">
-        <v>0</v>
-      </c>
-      <c r="I16" s="42">
-        <v>0</v>
-      </c>
-      <c r="J16" s="42">
-        <v>0</v>
-      </c>
-      <c r="K16" s="42">
-        <v>0</v>
-      </c>
-      <c r="L16" s="42">
-        <v>0</v>
-      </c>
-      <c r="M16" s="42">
-        <v>0</v>
-      </c>
     </row>
     <row r="17" ht="15.75">
       <c r="A17" s="17"/>
-      <c r="F17" s="42">
-        <v>0</v>
-      </c>
-      <c r="G17" s="42">
-        <v>0</v>
-      </c>
-      <c r="H17" s="42">
-        <v>0</v>
-      </c>
-      <c r="I17" s="42">
-        <v>0</v>
-      </c>
-      <c r="J17" s="42">
-        <v>0</v>
-      </c>
-      <c r="K17" s="42">
-        <v>0</v>
-      </c>
-      <c r="L17" s="42">
-        <v>0</v>
-      </c>
-      <c r="M17" s="42">
-        <v>0</v>
-      </c>
     </row>
     <row r="18" ht="15.75">
       <c r="A18" s="17"/>
-      <c r="F18" s="42">
-        <v>0</v>
-      </c>
-      <c r="G18" s="42">
-        <v>0</v>
-      </c>
-      <c r="H18" s="42">
-        <v>0</v>
-      </c>
-      <c r="I18" s="42">
-        <v>0</v>
-      </c>
-      <c r="J18" s="42">
-        <v>0</v>
-      </c>
-      <c r="K18" s="42">
-        <v>0</v>
-      </c>
-      <c r="L18" s="42">
-        <v>0</v>
-      </c>
-      <c r="M18" s="42">
-        <v>0</v>
-      </c>
     </row>
     <row r="19" ht="15.75">
       <c r="A19" s="17"/>
-      <c r="F19" s="42">
-        <v>0</v>
-      </c>
-      <c r="G19" s="42">
-        <v>0</v>
-      </c>
-      <c r="H19" s="42">
-        <v>0</v>
-      </c>
-      <c r="I19" s="42">
-        <v>0</v>
-      </c>
-      <c r="J19" s="42">
-        <v>0</v>
-      </c>
-      <c r="K19" s="42">
-        <v>0</v>
-      </c>
-      <c r="L19" s="42">
-        <v>0</v>
-      </c>
-      <c r="M19" s="42">
-        <v>0</v>
-      </c>
     </row>
     <row r="20" ht="15.75">
       <c r="A20" s="17"/>
-      <c r="F20" s="42">
-        <v>0</v>
-      </c>
-      <c r="G20" s="42">
-        <v>0</v>
-      </c>
-      <c r="H20" s="42">
-        <v>0</v>
-      </c>
-      <c r="I20" s="42">
-        <v>0</v>
-      </c>
-      <c r="J20" s="42">
-        <v>0</v>
-      </c>
-      <c r="K20" s="42">
-        <v>0</v>
-      </c>
-      <c r="L20" s="42">
-        <v>0</v>
-      </c>
-      <c r="M20" s="42">
-        <v>0</v>
-      </c>
     </row>
     <row r="21" ht="15.75">
       <c r="A21" s="17"/>
-      <c r="F21" s="42">
-        <v>0</v>
-      </c>
-      <c r="G21" s="42">
-        <v>0</v>
-      </c>
-      <c r="H21" s="42">
-        <v>0</v>
-      </c>
-      <c r="I21" s="42">
-        <v>0</v>
-      </c>
-      <c r="J21" s="42">
-        <v>0</v>
-      </c>
-      <c r="K21" s="42">
-        <v>0</v>
-      </c>
-      <c r="L21" s="42">
-        <v>0</v>
-      </c>
-      <c r="M21" s="42">
-        <v>0</v>
-      </c>
     </row>
     <row r="22" ht="15.75">
       <c r="A22" s="17"/>
-      <c r="F22" s="42">
-        <v>0</v>
-      </c>
-      <c r="G22" s="42">
-        <v>0</v>
-      </c>
-      <c r="H22" s="42">
-        <v>0</v>
-      </c>
-      <c r="I22" s="42">
-        <v>0</v>
-      </c>
-      <c r="J22" s="42">
-        <v>0</v>
-      </c>
-      <c r="K22" s="42">
-        <v>0</v>
-      </c>
-      <c r="L22" s="42">
-        <v>0</v>
-      </c>
-      <c r="M22" s="42">
-        <v>0</v>
-      </c>
     </row>
     <row r="23" ht="15.75">
       <c r="A23" s="17"/>
-      <c r="F23" s="42">
-        <v>0</v>
-      </c>
-      <c r="G23" s="42">
-        <v>0</v>
-      </c>
-      <c r="H23" s="42">
-        <v>0</v>
-      </c>
-      <c r="I23" s="42">
-        <v>0</v>
-      </c>
-      <c r="J23" s="42">
-        <v>0</v>
-      </c>
-      <c r="K23" s="42">
-        <v>0</v>
-      </c>
-      <c r="L23" s="42">
-        <v>0</v>
-      </c>
-      <c r="M23" s="42">
-        <v>0</v>
-      </c>
     </row>
     <row r="24" ht="15.75">
       <c r="A24" s="17"/>
-      <c r="F24" s="42">
-        <v>0</v>
-      </c>
-      <c r="G24" s="42">
-        <v>0</v>
-      </c>
-      <c r="H24" s="42">
-        <v>0</v>
-      </c>
-      <c r="I24" s="42">
-        <v>0</v>
-      </c>
-      <c r="J24" s="42">
-        <v>0</v>
-      </c>
-      <c r="K24" s="42">
-        <v>0</v>
-      </c>
-      <c r="L24" s="42">
-        <v>0</v>
-      </c>
-      <c r="M24" s="42">
-        <v>0</v>
-      </c>
     </row>
     <row r="25" ht="15.75">
       <c r="A25" s="17"/>
-      <c r="F25" s="42">
-        <v>0</v>
-      </c>
-      <c r="G25" s="42">
-        <v>0</v>
-      </c>
-      <c r="H25" s="42">
-        <v>0</v>
-      </c>
-      <c r="I25" s="42">
-        <v>0</v>
-      </c>
-      <c r="J25" s="42">
-        <v>0</v>
-      </c>
-      <c r="K25" s="42">
-        <v>0</v>
-      </c>
-      <c r="L25" s="42">
-        <v>0</v>
-      </c>
-      <c r="M25" s="42">
-        <v>0</v>
-      </c>
     </row>
     <row r="26" ht="15.75">
       <c r="A26" s="17"/>
@@ -1753,14 +1583,13 @@
     <mergeCell ref="F1:L1"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:E15"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.39370078740157477" bottom="0.39370078740157477" header="0" footer="0"/>
   <headerFooter>
@@ -1786,7 +1615,7 @@
   <sheetData>
     <row r="1" ht="15.75">
       <c r="A1" s="27" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -1797,7 +1626,7 @@
     </row>
     <row r="2" ht="15.75">
       <c r="A2" s="27" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
@@ -1817,25 +1646,25 @@
     </row>
     <row r="4" ht="15.75">
       <c r="A4" s="28" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="43" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="45" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" ht="15.75">
@@ -1843,20 +1672,20 @@
       <c r="B5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="44" t="s">
-        <v>32</v>
+      <c r="C5" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" ht="15.75">
@@ -1945,30 +1774,30 @@
   <sheetData>
     <row r="1" ht="15.75">
       <c r="A1" s="26" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C1" s="29"/>
       <c r="D1" s="32" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E1" s="17"/>
     </row>
     <row r="2" ht="15.75">
       <c r="A2" s="26"/>
       <c r="B2" s="19" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D2" s="33"/>
     </row>
     <row r="3">
-      <c r="A3" s="42" t="s">
-        <v>38</v>
+      <c r="A3" s="44" t="s">
+        <v>14</v>
       </c>
       <c r="B3" s="41">
         <v>0</v>
@@ -1981,8 +1810,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="42" t="s">
-        <v>39</v>
+      <c r="A4" s="44" t="s">
+        <v>15</v>
       </c>
       <c r="B4" s="41">
         <v>0</v>
@@ -1995,8 +1824,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="42" t="s">
-        <v>40</v>
+      <c r="A5" s="44" t="s">
+        <v>16</v>
       </c>
       <c r="B5" s="41">
         <v>0</v>
@@ -2009,11 +1838,11 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="42" t="s">
-        <v>41</v>
+      <c r="A6" s="44" t="s">
+        <v>17</v>
       </c>
       <c r="B6" s="41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="41">
         <v>0</v>
@@ -2023,11 +1852,11 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="42" t="s">
-        <v>42</v>
+      <c r="A7" s="44" t="s">
+        <v>20</v>
       </c>
       <c r="B7" s="41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" s="41">
         <v>0</v>
@@ -2037,8 +1866,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="42" t="s">
-        <v>43</v>
+      <c r="A8" s="44" t="s">
+        <v>21</v>
       </c>
       <c r="B8" s="41">
         <v>0</v>
@@ -2066,7 +1895,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B2"/>
@@ -2088,27 +1917,27 @@
   <sheetData>
     <row r="1" ht="15.75">
       <c r="A1" s="26" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D1" s="26"/>
       <c r="E1" s="26"/>
       <c r="F1" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="39" t="s">
         <v>47</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="39" t="s">
-        <v>50</v>
       </c>
       <c r="J1" s="25"/>
       <c r="K1" s="25"/>
@@ -2118,13 +1947,13 @@
       <c r="A2" s="26"/>
       <c r="B2" s="30"/>
       <c r="C2" s="22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
@@ -2135,8 +1964,177 @@
       <c r="L2" s="18"/>
     </row>
     <row r="3">
-      <c r="F3" s="0" t="s">
+      <c r="A3" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="41">
+        <v>0</v>
+      </c>
+      <c r="C3" s="41">
+        <v>0</v>
+      </c>
+      <c r="D3" s="41">
+        <v>0</v>
+      </c>
+      <c r="E3" s="41">
+        <v>0</v>
+      </c>
+      <c r="F3" s="41">
+        <v>0</v>
+      </c>
+      <c r="G3" s="41">
+        <v>0</v>
+      </c>
+      <c r="H3" s="41">
+        <v>0</v>
+      </c>
+      <c r="I3" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="41">
+        <v>0</v>
+      </c>
+      <c r="C4" s="41">
+        <v>0</v>
+      </c>
+      <c r="D4" s="41">
+        <v>0</v>
+      </c>
+      <c r="E4" s="41">
+        <v>0</v>
+      </c>
+      <c r="F4" s="41">
+        <v>0</v>
+      </c>
+      <c r="G4" s="41">
+        <v>0</v>
+      </c>
+      <c r="H4" s="41">
+        <v>0</v>
+      </c>
+      <c r="I4" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="41">
+        <v>0</v>
+      </c>
+      <c r="C5" s="41">
+        <v>0</v>
+      </c>
+      <c r="D5" s="41">
+        <v>0</v>
+      </c>
+      <c r="E5" s="41">
+        <v>0</v>
+      </c>
+      <c r="F5" s="41">
+        <v>0</v>
+      </c>
+      <c r="G5" s="41">
+        <v>0</v>
+      </c>
+      <c r="H5" s="41">
+        <v>0</v>
+      </c>
+      <c r="I5" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="44" t="s">
         <v>54</v>
+      </c>
+      <c r="B6" s="41">
+        <v>1</v>
+      </c>
+      <c r="C6" s="41">
+        <v>13.213213</v>
+      </c>
+      <c r="D6" s="41">
+        <v>13.213213</v>
+      </c>
+      <c r="E6" s="41">
+        <v>13.213213</v>
+      </c>
+      <c r="F6" s="41">
+        <v>0</v>
+      </c>
+      <c r="G6" s="41">
+        <v>0</v>
+      </c>
+      <c r="H6" s="41">
+        <v>0</v>
+      </c>
+      <c r="I6" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="41">
+        <v>2</v>
+      </c>
+      <c r="C7" s="41">
+        <v>18.918918</v>
+      </c>
+      <c r="D7" s="41">
+        <v>18.918918</v>
+      </c>
+      <c r="E7" s="41">
+        <v>18.918918</v>
+      </c>
+      <c r="F7" s="41">
+        <v>0</v>
+      </c>
+      <c r="G7" s="41">
+        <v>0</v>
+      </c>
+      <c r="H7" s="41">
+        <v>0</v>
+      </c>
+      <c r="I7" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="41">
+        <v>0</v>
+      </c>
+      <c r="C8" s="41">
+        <v>0</v>
+      </c>
+      <c r="D8" s="41">
+        <v>0</v>
+      </c>
+      <c r="E8" s="41">
+        <v>0</v>
+      </c>
+      <c r="F8" s="41">
+        <v>0</v>
+      </c>
+      <c r="G8" s="41">
+        <v>0</v>
+      </c>
+      <c r="H8" s="41">
+        <v>0</v>
+      </c>
+      <c r="I8" s="41">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
